--- a/biology/Médecine/Queue_de_cerise/Queue_de_cerise.xlsx
+++ b/biology/Médecine/Queue_de_cerise/Queue_de_cerise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les queues de cerises sont les pédoncules de cerises (fruit du Prunus cerasus) utilisés en herboristerie pour soigner certaines affections. 
 Elles se préparent en décoction.
@@ -512,7 +524,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>flavonoïdes ;
 sels de potassium (qui expliquent l'effet diurétique) ;
@@ -545,13 +559,15 @@
           <t>Propriétés et indications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les queues de cerises sont principalement utilisées pour leurs propriétés diurétiques et dépuratives ;
 contre l'inflammation des voies urinaires, la cystite et la colique néphrétique.
 contre la surcharge pondérale ou pour traiter des œdèmes (en association avec du thé vert par exemple)
 pour désintoxiquer l'organisme en favorisant le fonctionnement des reins (augmentation de la diurèse)
-Il ne semble pas exister d'étude clinique ayant scientifiquement évalué les effets des queues de cerise sur la minceur chez l'être humain, mais leur caractère diurétique est démontré chez le rat, seul ou associé à d'autres plantes ou huile essentielle[1].
+Il ne semble pas exister d'étude clinique ayant scientifiquement évalué les effets des queues de cerise sur la minceur chez l'être humain, mais leur caractère diurétique est démontré chez le rat, seul ou associé à d'autres plantes ou huile essentielle.
 </t>
         </is>
       </c>
@@ -580,7 +596,9 @@
           <t>Commercialisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce produit est vendu sous forme complète, ou en poudre (micronisée, éventuellement cryobroyée, généralement présentée en gélules)
 </t>
@@ -611,7 +629,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>en décoction (ex : Après une phase de ramollissement par macération durant 12 h de 50 g de queues par litre, le tout est bouilli 10 minutes puis laissé au repos 20 minutes avant filtration). La décoction est généralement recommandée après chaque repas (matin, midi et soir).
 infusion (ex : macération durant 12 h de 20 g de queues par litre, infusion durant 10 minutes dans un litre d'eau bouillante avant de filtrer ; la prise de l'infusion est généralement recommandée après chaque repas (matin, midi et soir).
@@ -644,7 +664,9 @@
           <t>Dans le langage courant</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>« des queues de cerises ! » : équivaut à « des nèfles ! », c'est-à-dire rien du tout, peu de choses, quantité négligeable.</t>
         </is>
